--- a/data/Analyse14.xlsx
+++ b/data/Analyse14.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="87">
   <si>
     <t xml:space="preserve">Jahr</t>
   </si>
@@ -272,6 +272,15 @@
   </si>
   <si>
     <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oslo 02.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karlstad 03.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sihlhölzli 28.06</t>
   </si>
 </sst>
 </file>
@@ -589,8 +598,8 @@
   </sheetPr>
   <dimension ref="A1:AN1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AN1" activeCellId="0" sqref="AI:AN"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AL42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5907,6 +5916,360 @@
         <v>2</v>
       </c>
     </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="J44" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="K44" s="2" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="L44" s="2" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="M44" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="N44" s="2" t="n">
+        <v>20.11</v>
+      </c>
+      <c r="O44" s="2" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="P44" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q44" s="2" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="R44" s="2" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="S44" s="2" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="T44" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="U44" s="2" t="n">
+        <v>29.52</v>
+      </c>
+      <c r="V44" s="2" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="W44" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="X44" s="2" t="n">
+        <v>34.41</v>
+      </c>
+      <c r="Y44" s="2" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="Z44" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA44" s="2" t="n">
+        <v>39.57</v>
+      </c>
+      <c r="AB44" s="2" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AC44" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD44" s="2" t="n">
+        <v>44.82</v>
+      </c>
+      <c r="AE44" s="2" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="AF44" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG44" s="2" t="n">
+        <v>50.21</v>
+      </c>
+      <c r="AH44" s="2" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AI44" s="2" t="n">
+        <v>56.41</v>
+      </c>
+      <c r="AJ44" s="2" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="AK44" s="2" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="AL44" s="2" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AM44" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN44" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>10.93</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="J45" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="K45" s="2" t="n">
+        <v>15.41</v>
+      </c>
+      <c r="L45" s="2" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="M45" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="N45" s="2" t="n">
+        <v>19.92</v>
+      </c>
+      <c r="O45" s="2" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="P45" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q45" s="2" t="n">
+        <v>24.59</v>
+      </c>
+      <c r="R45" s="2" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="S45" s="2" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="T45" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="U45" s="2" t="n">
+        <v>29.35</v>
+      </c>
+      <c r="V45" s="2" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="W45" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="X45" s="2" t="n">
+        <v>34.16</v>
+      </c>
+      <c r="Y45" s="2" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="Z45" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA45" s="2" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="AB45" s="2" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="AC45" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD45" s="2" t="n">
+        <v>44.64</v>
+      </c>
+      <c r="AE45" s="2" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AF45" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG45" s="2" t="n">
+        <v>50.24</v>
+      </c>
+      <c r="AH45" s="2" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="AI45" s="2" t="n">
+        <v>56.5</v>
+      </c>
+      <c r="AJ45" s="2" t="n">
+        <v>26.49</v>
+      </c>
+      <c r="AK45" s="2" t="n">
+        <v>30.01</v>
+      </c>
+      <c r="AL45" s="2" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AM45" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN45" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J46" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="K46" s="2" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="L46" s="2" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="M46" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="N46" s="2" t="n">
+        <v>24.23</v>
+      </c>
+      <c r="O46" s="2" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="P46" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q46" s="2" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="R46" s="2" t="n">
+        <v>32.83</v>
+      </c>
+      <c r="S46" s="2" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="T46" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="U46" s="2" t="n">
+        <v>36.63</v>
+      </c>
+      <c r="W46" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="X46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z46" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA46" s="2" t="n">
+        <v>49.35</v>
+      </c>
+      <c r="AC46" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD46" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF46" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG46" s="2" t="n">
+        <v>62.36</v>
+      </c>
+      <c r="AH46" s="2" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="AI46" s="2" t="n">
+        <v>69.35</v>
+      </c>
+      <c r="AJ46" s="2" t="n">
+        <v>32.83</v>
+      </c>
+      <c r="AK46" s="2" t="n">
+        <v>36.52</v>
+      </c>
+      <c r="AL46" s="2" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="AM46" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN46" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
